--- a/www/IndicatorsPerCountry/Nepal_GDPperCapita_TerritorialRef_1946_2012_CCode_524.xlsx
+++ b/www/IndicatorsPerCountry/Nepal_GDPperCapita_TerritorialRef_1946_2012_CCode_524.xlsx
@@ -243,13 +243,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Nepal_GDPperCapita_TerritorialRef_1946_2012_CCode_524.xlsx
+++ b/www/IndicatorsPerCountry/Nepal_GDPperCapita_TerritorialRef_1946_2012_CCode_524.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="87">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,184 +36,208 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>397</t>
+    <t>641</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>539</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>505</t>
-  </si>
-  <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>543</t>
-  </si>
-  <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>572</t>
-  </si>
-  <si>
-    <t>566</t>
-  </si>
-  <si>
-    <t>592</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>607</t>
-  </si>
-  <si>
-    <t>613</t>
-  </si>
-  <si>
-    <t>618</t>
-  </si>
-  <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>626</t>
-  </si>
-  <si>
-    <t>631</t>
-  </si>
-  <si>
-    <t>663</t>
-  </si>
-  <si>
-    <t>641</t>
-  </si>
-  <si>
-    <t>633</t>
-  </si>
-  <si>
-    <t>649</t>
-  </si>
-  <si>
-    <t>653</t>
-  </si>
-  <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>651</t>
-  </si>
-  <si>
-    <t>647</t>
-  </si>
-  <si>
-    <t>662</t>
-  </si>
-  <si>
-    <t>668</t>
-  </si>
-  <si>
-    <t>682</t>
-  </si>
-  <si>
-    <t>683</t>
-  </si>
-  <si>
-    <t>652</t>
-  </si>
-  <si>
-    <t>637</t>
-  </si>
-  <si>
-    <t>699</t>
-  </si>
-  <si>
-    <t>708</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>745</t>
-  </si>
-  <si>
-    <t>754</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>825.076053522</t>
-  </si>
-  <si>
-    <t>853.69819766</t>
-  </si>
-  <si>
-    <t>862.810228572</t>
-  </si>
-  <si>
-    <t>869.61298976</t>
-  </si>
-  <si>
-    <t>914.25812013</t>
-  </si>
-  <si>
-    <t>918.741331233</t>
-  </si>
-  <si>
-    <t>940.781472551</t>
-  </si>
-  <si>
-    <t>953.077763962</t>
-  </si>
-  <si>
-    <t>946.613089252</t>
-  </si>
-  <si>
-    <t>954.887528464</t>
-  </si>
-  <si>
-    <t>994.473321594</t>
-  </si>
-  <si>
-    <t>1025.78923092</t>
-  </si>
-  <si>
-    <t>1003.7168241</t>
-  </si>
-  <si>
-    <t>1016.69327079</t>
-  </si>
-  <si>
-    <t>1036.23156174</t>
-  </si>
-  <si>
-    <t>1053.15339053</t>
-  </si>
-  <si>
-    <t>1076.51591814</t>
-  </si>
-  <si>
-    <t>1097.35229306</t>
-  </si>
-  <si>
-    <t>1133.88109924</t>
+    <t>870</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>835</t>
+  </si>
+  <si>
+    <t>877</t>
+  </si>
+  <si>
+    <t>886</t>
+  </si>
+  <si>
+    <t>894</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>956</t>
+  </si>
+  <si>
+    <t>971</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>1071</t>
+  </si>
+  <si>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1049</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1052</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>1152</t>
+  </si>
+  <si>
+    <t>1194</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>1269</t>
+  </si>
+  <si>
+    <t>1290</t>
+  </si>
+  <si>
+    <t>1315</t>
+  </si>
+  <si>
+    <t>1360.78354501199</t>
+  </si>
+  <si>
+    <t>1374.66118498648</t>
+  </si>
+  <si>
+    <t>1385.24106157196</t>
+  </si>
+  <si>
+    <t>1456.02029656526</t>
+  </si>
+  <si>
+    <t>1468.07894532892</t>
+  </si>
+  <si>
+    <t>1511.73367300972</t>
+  </si>
+  <si>
+    <t>1558.39878541556</t>
+  </si>
+  <si>
+    <t>1570.66349301421</t>
+  </si>
+  <si>
+    <t>1609.18027622043</t>
+  </si>
+  <si>
+    <t>1676.7456451079</t>
+  </si>
+  <si>
+    <t>1738.31417941039</t>
+  </si>
+  <si>
+    <t>1709.77869937907</t>
+  </si>
+  <si>
+    <t>1747.77660138511</t>
+  </si>
+  <si>
+    <t>1802.14384785063</t>
+  </si>
+  <si>
+    <t>1836.30571517462</t>
+  </si>
+  <si>
+    <t>1884.18716679371</t>
+  </si>
+  <si>
+    <t>1927.38650311044</t>
+  </si>
+  <si>
+    <t>2021.15408379838</t>
+  </si>
+  <si>
+    <t>2085.24361411454</t>
+  </si>
+  <si>
+    <t>2152.27458744838</t>
+  </si>
+  <si>
+    <t>2189</t>
+  </si>
+  <si>
+    <t>2258</t>
+  </si>
+  <si>
+    <t>2316</t>
+  </si>
+  <si>
+    <t>2421</t>
+  </si>
+  <si>
+    <t>2455</t>
+  </si>
+  <si>
+    <t>2435</t>
   </si>
   <si>
     <t>Description</t>
@@ -2898,7 +2922,7 @@
         <v>1971.0</v>
       </c>
       <c r="E153" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="154">
@@ -2915,7 +2939,7 @@
         <v>1972.0</v>
       </c>
       <c r="E154" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155">
@@ -2983,7 +3007,7 @@
         <v>1976.0</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="159">
@@ -3000,7 +3024,7 @@
         <v>1977.0</v>
       </c>
       <c r="E159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160">
@@ -3017,7 +3041,7 @@
         <v>1978.0</v>
       </c>
       <c r="E160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="161">
@@ -3034,7 +3058,7 @@
         <v>1979.0</v>
       </c>
       <c r="E161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="162">
@@ -3051,7 +3075,7 @@
         <v>1980.0</v>
       </c>
       <c r="E162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="163">
@@ -3068,7 +3092,7 @@
         <v>1981.0</v>
       </c>
       <c r="E163" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="164">
@@ -3085,7 +3109,7 @@
         <v>1982.0</v>
       </c>
       <c r="E164" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="165">
@@ -3102,7 +3126,7 @@
         <v>1983.0</v>
       </c>
       <c r="E165" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="166">
@@ -3528,6 +3552,142 @@
       </c>
       <c r="E190" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3545,50 +3705,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
